--- a/Visuals/graph_regional_flows.xlsx
+++ b/Visuals/graph_regional_flows.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marissamarinello/Desktop/Final_Project/Visuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B3D3D3-88DE-B54A-AE20-C7AAF51E825B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7660048D-B407-424B-B177-C1521733C600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="20420" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="refugeetotals" sheetId="1" r:id="rId1"/>
+    <sheet name="% change turkey" sheetId="2" r:id="rId2"/>
+    <sheet name="% change total" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">refugeetotals!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">refugeetotals!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">refugeetotals!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">refugeetotals!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">refugeetotals!$B$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">refugeetotals!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">refugeetotals!$E$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">refugeetotals!$E$2:$E$9</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Year</t>
   </si>
@@ -46,12 +46,42 @@
   <si>
     <t>Total Pop</t>
   </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Percent Change in Syrian Refugee Population Each Year</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>% Change</t>
+  </si>
+  <si>
+    <t>Syria Aid</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>Amount of Aid (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Population </t>
+  </si>
+  <si>
+    <t>Aid to Syria and Total Registered Syrian Refugee Population</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +215,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -368,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -483,8 +533,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -527,11 +657,116 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -559,6 +794,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="43" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -571,6 +807,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3618,16 +3855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3654,16 +3891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3988,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="B1:B9 E1:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4173,8 +4410,539 @@
         <v>5069566</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2010</v>
+      </c>
+      <c r="B15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2011</v>
+      </c>
+      <c r="B16">
+        <v>224</v>
+      </c>
+      <c r="C16">
+        <f>(B16-B15)/B15</f>
+        <v>2.0270270270270272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2012</v>
+      </c>
+      <c r="B17">
+        <v>248666</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C23" si="0">(B17-B16)/B16</f>
+        <v>1109.1160714285713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2013</v>
+      </c>
+      <c r="B18">
+        <v>585711</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.3554124809986086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2014</v>
+      </c>
+      <c r="B19">
+        <v>1558149</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.6602693137059061</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2015</v>
+      </c>
+      <c r="B20">
+        <v>2503846</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.60693617876082451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2016</v>
+      </c>
+      <c r="B21">
+        <v>2824167</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.12793159004187957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22">
+        <v>3424400</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.21253452788025637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5BD93D-8CAC-B641-A293-C5F4151E69C5}">
+  <dimension ref="B2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="19"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C6" s="13">
+        <v>74</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C7" s="13">
+        <v>224</v>
+      </c>
+      <c r="D7" s="14">
+        <f>(C7-C6)/C6</f>
+        <v>2.0270270270270272</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C8" s="13">
+        <v>248666</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:D13" si="0">(C8-C7)/C7</f>
+        <v>1109.1160714285713</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="13">
+        <v>585711</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3554124809986086</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1558149</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>1.6602693137059061</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2503846</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.60693617876082451</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2824167</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12793159004187957</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>2017</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3424400</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21253452788025637</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1FEE18-9EBC-5D49-9E04-FAF816619A89}">
+  <dimension ref="C8:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>2010</v>
+      </c>
+      <c r="D9" s="20">
+        <v>25644</v>
+      </c>
+      <c r="F9" s="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>2011</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1722596279.0399899</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>2012</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1330098715.6199999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>2013</v>
+      </c>
+      <c r="D12" s="20">
+        <v>191402588.639999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>2014</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2065318463.98999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>2015</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1099183172.0599999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>2016</v>
+      </c>
+      <c r="D15" s="20">
+        <v>516954083.42000002</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="20">
+        <v>21144844.109999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="12">
+        <v>2011</v>
+      </c>
+      <c r="D23" s="27">
+        <v>25644</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13">
+        <v>3526</v>
+      </c>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="12">
+        <v>2012</v>
+      </c>
+      <c r="D24" s="27">
+        <v>1722596279.0399899</v>
+      </c>
+      <c r="E24" s="14">
+        <f>(D24-D23)/D23</f>
+        <v>67172.462760879353</v>
+      </c>
+      <c r="F24" s="36">
+        <v>615136</v>
+      </c>
+      <c r="G24" s="23">
+        <f>(F24-F23)/F23</f>
+        <v>173.45717526942713</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="12">
+        <v>2013</v>
+      </c>
+      <c r="D25" s="27">
+        <v>1330098715.6199999</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" ref="E25:E30" si="0">(D25-D24)/D24</f>
+        <v>-0.22785232279656994</v>
+      </c>
+      <c r="F25" s="36">
+        <v>2022630</v>
+      </c>
+      <c r="G25" s="23">
+        <f t="shared" ref="G25:G29" si="1">(F25-F24)/F24</f>
+        <v>2.2881021432658795</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="12">
+        <v>2014</v>
+      </c>
+      <c r="D26" s="27">
+        <v>191402588.639999</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.8560989598799964</v>
+      </c>
+      <c r="F26" s="36">
+        <v>3329172</v>
+      </c>
+      <c r="G26" s="23">
+        <f t="shared" si="1"/>
+        <v>0.64596194064163981</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="12">
+        <v>2015</v>
+      </c>
+      <c r="D27" s="27">
+        <v>2065318463.98999</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="0"/>
+        <v>9.7904416479683025</v>
+      </c>
+      <c r="F27" s="36">
+        <v>4194774</v>
+      </c>
+      <c r="G27" s="23">
+        <f t="shared" si="1"/>
+        <v>0.26000519047979498</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="12">
+        <v>2016</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1099183172.0599999</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.46778998434145247</v>
+      </c>
+      <c r="F28" s="36">
+        <v>4478516</v>
+      </c>
+      <c r="G28" s="23">
+        <f t="shared" si="1"/>
+        <v>6.7641784754077339E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="15">
+        <v>2017</v>
+      </c>
+      <c r="D29" s="28">
+        <v>516954083.42000002</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.52969250570751858</v>
+      </c>
+      <c r="F29" s="37">
+        <v>5069566</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="1"/>
+        <v>0.13197452013122205</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="29"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>